--- a/project/Data/project_place.xlsx
+++ b/project/Data/project_place.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ph\BigData\project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F888BD-341B-4A69-9684-ADE827DF4720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="9885" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="place" sheetId="1" r:id="rId1"/>
@@ -9463,7 +9469,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9692,7 +9698,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -9701,7 +9707,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -9714,6 +9720,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9973,22 +9982,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M559"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1908</v>
       </c>
@@ -10029,7 +10038,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10067,7 +10076,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10096,7 +10105,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10131,7 +10140,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10163,7 +10172,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10198,7 +10207,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10230,7 +10239,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10262,7 +10271,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10303,7 +10312,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10341,7 +10350,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10379,7 +10388,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10411,7 +10420,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10452,7 +10461,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10481,7 +10490,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10513,7 +10522,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -10545,7 +10554,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10583,7 +10592,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10615,7 +10624,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10656,7 +10665,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -10697,7 +10706,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -10729,7 +10738,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10770,7 +10779,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10805,7 +10814,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10825,7 +10834,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10857,7 +10866,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10889,7 +10898,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10918,7 +10927,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10956,7 +10965,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10988,7 +10997,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -11026,7 +11035,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -11064,7 +11073,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -11105,7 +11114,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -11140,7 +11149,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -11160,7 +11169,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -11198,7 +11207,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -11236,7 +11245,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -11268,7 +11277,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -11300,7 +11309,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -11332,7 +11341,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -11364,7 +11373,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -11402,7 +11411,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -11440,7 +11449,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -11481,7 +11490,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -11519,7 +11528,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -11557,7 +11566,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -11586,7 +11595,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -11624,7 +11633,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -11665,7 +11674,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -11703,7 +11712,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -11744,7 +11753,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -11776,7 +11785,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -11817,7 +11826,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -11846,7 +11855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -11887,7 +11896,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -11907,7 +11916,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -11948,7 +11957,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -11980,7 +11989,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -12012,7 +12021,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -12050,7 +12059,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -12091,7 +12100,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -12114,7 +12123,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -12152,7 +12161,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -12187,7 +12196,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -12228,7 +12237,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -12266,7 +12275,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -12298,7 +12307,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -12321,7 +12330,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -12362,7 +12371,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -12403,7 +12412,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -12444,7 +12453,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -12479,7 +12488,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -12499,7 +12508,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -12531,7 +12540,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -12572,7 +12581,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -12604,7 +12613,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -12642,7 +12651,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -12680,7 +12689,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -12721,7 +12730,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -12741,7 +12750,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -12776,7 +12785,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -12808,7 +12817,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -12831,7 +12840,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -12854,7 +12863,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -12886,7 +12895,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -12915,7 +12924,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -12947,7 +12956,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -12976,7 +12985,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -13011,7 +13020,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -13040,7 +13049,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -13075,7 +13084,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -13095,7 +13104,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -13136,7 +13145,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -13168,7 +13177,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -13200,7 +13209,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -13229,7 +13238,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -13258,7 +13267,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -13296,7 +13305,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -13337,7 +13346,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -13369,7 +13378,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -13410,7 +13419,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -13433,7 +13442,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -13465,7 +13474,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -13503,7 +13512,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -13535,7 +13544,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -13567,7 +13576,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -13605,7 +13614,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -13637,7 +13646,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -13678,7 +13687,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -13719,7 +13728,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -13760,7 +13769,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -13798,7 +13807,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -13836,7 +13845,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -13862,7 +13871,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -13897,7 +13906,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -13929,7 +13938,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -13958,7 +13967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -13993,7 +14002,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -14034,7 +14043,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -14066,7 +14075,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -14104,7 +14113,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -14133,7 +14142,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -14171,7 +14180,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -14206,7 +14215,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -14226,7 +14235,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -14264,7 +14273,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -14305,7 +14314,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -14337,7 +14346,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -14369,7 +14378,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -14389,7 +14398,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -14427,7 +14436,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -14465,7 +14474,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -14488,7 +14497,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -14526,7 +14535,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -14564,7 +14573,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -14593,7 +14602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -14631,7 +14640,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -14663,7 +14672,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -14695,7 +14704,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -14730,7 +14739,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -14768,7 +14777,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -14809,7 +14818,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -14829,7 +14838,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -14861,7 +14870,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -14893,7 +14902,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -14913,7 +14922,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -14954,7 +14963,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -14995,7 +15004,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -15024,7 +15033,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -15056,7 +15065,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -15085,7 +15094,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -15114,7 +15123,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -15149,7 +15158,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -15181,7 +15190,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -15222,7 +15231,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -15245,7 +15254,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -15283,7 +15292,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -15321,7 +15330,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -15359,7 +15368,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -15400,7 +15409,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -15429,7 +15438,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -15449,7 +15458,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -15469,7 +15478,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -15504,7 +15513,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -15545,7 +15554,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -15586,7 +15595,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -15621,7 +15630,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -15659,7 +15668,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -15697,7 +15706,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -15735,7 +15744,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -15770,7 +15779,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -15811,7 +15820,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -15840,7 +15849,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -15878,7 +15887,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -15916,7 +15925,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -15951,7 +15960,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -15989,7 +15998,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -16027,7 +16036,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -16065,7 +16074,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -16097,7 +16106,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -16132,7 +16141,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -16164,7 +16173,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -16202,7 +16211,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -16240,7 +16249,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -16272,7 +16281,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -16313,7 +16322,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -16354,7 +16363,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -16389,7 +16398,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -16418,7 +16427,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -16453,7 +16462,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -16491,7 +16500,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -16523,7 +16532,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -16558,7 +16567,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -16587,7 +16596,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -16625,7 +16634,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -16657,7 +16666,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -16695,7 +16704,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -16727,7 +16736,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -16765,7 +16774,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -16785,7 +16794,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -16814,7 +16823,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -16852,7 +16861,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -16881,7 +16890,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -16916,7 +16925,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -16948,7 +16957,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -16986,7 +16995,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -17024,7 +17033,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -17065,7 +17074,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -17103,7 +17112,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -17126,7 +17135,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -17167,7 +17176,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -17202,7 +17211,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -17243,7 +17252,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -17275,7 +17284,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -17307,7 +17316,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -17330,7 +17339,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -17359,7 +17368,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -17397,7 +17406,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -17426,7 +17435,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -17458,7 +17467,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -17490,7 +17499,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -17519,7 +17528,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -17548,7 +17557,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -17577,7 +17586,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -17600,7 +17609,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -17620,7 +17629,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -17661,7 +17670,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -17684,7 +17693,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -17716,7 +17725,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -17757,7 +17766,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -17777,7 +17786,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -17809,7 +17818,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -17841,7 +17850,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -17882,7 +17891,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -17905,7 +17914,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -17946,7 +17955,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -17978,7 +17987,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -18019,7 +18028,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -18048,7 +18057,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -18080,7 +18089,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -18106,7 +18115,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -18144,7 +18153,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -18176,7 +18185,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -18214,7 +18223,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -18249,7 +18258,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -18269,7 +18278,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -18310,7 +18319,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -18351,7 +18360,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -18392,7 +18401,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -18415,7 +18424,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -18450,7 +18459,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -18488,7 +18497,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -18529,7 +18538,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -18558,7 +18567,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -18590,7 +18599,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -18625,7 +18634,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -18666,7 +18675,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -18707,7 +18716,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -18748,7 +18757,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -18783,7 +18792,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -18815,7 +18824,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -18856,7 +18865,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -18897,7 +18906,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -18938,7 +18947,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -18973,7 +18982,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -19005,7 +19014,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -19046,7 +19055,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -19084,7 +19093,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -19125,7 +19134,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -19160,7 +19169,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -19198,7 +19207,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -19233,7 +19242,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -19274,7 +19283,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -19315,7 +19324,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -19353,7 +19362,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -19388,7 +19397,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -19417,7 +19426,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -19449,7 +19458,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -19484,7 +19493,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -19519,7 +19528,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -19542,7 +19551,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -19583,7 +19592,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -19621,7 +19630,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -19653,7 +19662,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -19691,7 +19700,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -19729,7 +19738,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -19764,7 +19773,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -19796,7 +19805,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -19837,7 +19846,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -19878,7 +19887,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -19910,7 +19919,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -19951,7 +19960,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -19992,7 +20001,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -20033,7 +20042,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -20074,7 +20083,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -20112,7 +20121,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -20144,7 +20153,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -20182,7 +20191,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -20214,7 +20223,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -20246,7 +20255,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -20287,7 +20296,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -20328,7 +20337,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -20363,7 +20372,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -20401,7 +20410,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -20430,7 +20439,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -20471,7 +20480,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -20509,7 +20518,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -20538,7 +20547,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -20567,7 +20576,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -20602,7 +20611,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -20643,7 +20652,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -20681,7 +20690,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -20716,7 +20725,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -20748,7 +20757,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -20777,7 +20786,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -20818,7 +20827,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -20841,7 +20850,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -20882,7 +20891,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -20914,7 +20923,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -20949,7 +20958,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -20984,7 +20993,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -21019,7 +21028,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -21057,7 +21066,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -21098,7 +21107,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -21130,7 +21139,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -21162,7 +21171,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -21194,7 +21203,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -21235,7 +21244,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -21267,7 +21276,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -21308,7 +21317,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -21340,7 +21349,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -21375,7 +21384,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -21407,7 +21416,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -21442,7 +21451,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -21483,7 +21492,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -21506,7 +21515,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -21538,7 +21547,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -21579,7 +21588,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -21611,7 +21620,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -21631,7 +21640,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -21663,7 +21672,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -21704,7 +21713,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -21736,7 +21745,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -21777,7 +21786,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -21818,7 +21827,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -21841,7 +21850,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -21864,7 +21873,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -21905,7 +21914,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -21943,7 +21952,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -21975,7 +21984,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -22007,7 +22016,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -22039,7 +22048,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -22077,7 +22086,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -22106,7 +22115,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -22141,7 +22150,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -22176,7 +22185,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -22208,7 +22217,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -22240,7 +22249,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -22272,7 +22281,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -22313,7 +22322,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -22345,7 +22354,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -22377,7 +22386,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -22415,7 +22424,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -22447,7 +22456,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -22479,7 +22488,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -22511,7 +22520,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -22549,7 +22558,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -22572,7 +22581,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -22613,7 +22622,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -22654,7 +22663,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -22692,7 +22701,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -22721,7 +22730,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -22759,7 +22768,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -22797,7 +22806,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -22820,7 +22829,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -22843,7 +22852,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -22869,7 +22878,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -22898,7 +22907,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -22933,7 +22942,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -22965,7 +22974,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -23003,7 +23012,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -23035,7 +23044,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -23055,7 +23064,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -23087,7 +23096,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -23110,7 +23119,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -23151,7 +23160,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -23183,7 +23192,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -23218,7 +23227,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -23250,7 +23259,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -23282,7 +23291,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -23314,7 +23323,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -23355,7 +23364,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -23378,7 +23387,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -23410,7 +23419,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -23439,7 +23448,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -23480,7 +23489,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -23509,7 +23518,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -23541,7 +23550,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -23579,7 +23588,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -23599,7 +23608,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -23637,7 +23646,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -23660,7 +23669,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -23692,7 +23701,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -23724,7 +23733,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -23762,7 +23771,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -23782,7 +23791,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -23817,7 +23826,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -23846,7 +23855,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -23878,7 +23887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -23907,7 +23916,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -23936,7 +23945,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -23965,7 +23974,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -23994,7 +24003,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -24023,7 +24032,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -24055,7 +24064,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -24090,7 +24099,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -24119,7 +24128,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -24154,7 +24163,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -24189,7 +24198,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -24227,7 +24236,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -24259,7 +24268,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -24297,7 +24306,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -24335,7 +24344,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -24355,7 +24364,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -24375,7 +24384,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -24407,7 +24416,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -24445,7 +24454,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -24477,7 +24486,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -24509,7 +24518,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -24550,7 +24559,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -24585,7 +24594,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -24617,7 +24626,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -24652,7 +24661,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -24672,7 +24681,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -24695,7 +24704,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -24727,7 +24736,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -24765,7 +24774,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -24797,7 +24806,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -24838,7 +24847,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -24879,7 +24888,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -24902,7 +24911,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -24940,7 +24949,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -24975,7 +24984,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -25016,7 +25025,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -25048,7 +25057,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -25083,7 +25092,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -25121,7 +25130,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -25153,7 +25162,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -25185,7 +25194,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -25214,7 +25223,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -25255,7 +25264,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -25275,7 +25284,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -25313,7 +25322,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -25342,7 +25351,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -25377,7 +25386,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -25400,7 +25409,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -25420,7 +25429,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -25449,7 +25458,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -25481,7 +25490,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -25504,7 +25513,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -25545,7 +25554,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -25568,7 +25577,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -25588,7 +25597,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -25629,7 +25638,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -25664,7 +25673,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -25699,7 +25708,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -25734,7 +25743,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -25766,7 +25775,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -25804,7 +25813,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -25836,7 +25845,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -25859,7 +25868,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -25891,7 +25900,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -25923,7 +25932,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -25952,7 +25961,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -25987,7 +25996,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -26025,7 +26034,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -26057,7 +26066,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -26098,7 +26107,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -26121,7 +26130,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -26144,7 +26153,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -26176,7 +26185,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -26205,7 +26214,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -26225,7 +26234,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -26257,7 +26266,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -26280,7 +26289,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -26318,7 +26327,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -26338,7 +26347,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -26370,7 +26379,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -26408,7 +26417,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -26440,7 +26449,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -26478,7 +26487,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -26519,7 +26528,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -26539,7 +26548,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -26580,7 +26589,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -26612,7 +26621,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -26650,7 +26659,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -26670,7 +26679,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -26705,7 +26714,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -26725,7 +26734,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -26763,7 +26772,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -26801,7 +26810,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -26833,7 +26842,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -26874,7 +26883,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -26912,7 +26921,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -26944,7 +26953,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -26985,7 +26994,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -27008,7 +27017,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -27049,7 +27058,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -27087,7 +27096,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -27110,7 +27119,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -27139,7 +27148,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -27180,7 +27189,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -27212,7 +27221,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -27253,7 +27262,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -27288,7 +27297,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -27317,7 +27326,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -27355,7 +27364,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -27390,7 +27399,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -27422,7 +27431,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -27460,7 +27469,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -27501,7 +27510,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -27530,7 +27539,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -27565,7 +27574,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -27606,7 +27615,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -27644,7 +27653,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -27685,7 +27694,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -27726,7 +27735,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -27764,7 +27773,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -27805,7 +27814,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -27846,7 +27855,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -27881,7 +27890,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -27916,7 +27925,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -27957,7 +27966,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -27998,7 +28007,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -28039,7 +28048,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -28071,7 +28080,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -28109,7 +28118,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -28141,7 +28150,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -28179,7 +28188,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -28220,7 +28229,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -28258,7 +28267,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -28278,7 +28287,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -28310,7 +28319,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -28342,7 +28351,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -28374,7 +28383,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -28397,7 +28406,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -28420,7 +28429,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -28461,7 +28470,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -28484,7 +28493,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -28522,7 +28531,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -28563,7 +28572,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -28598,7 +28607,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -28639,7 +28648,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -28680,7 +28689,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -28712,7 +28721,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -28732,7 +28741,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -28752,7 +28761,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -28772,7 +28781,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -28810,7 +28819,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -28849,8 +28858,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M559"/>
-  <sortState ref="A2:M560">
+  <autoFilter ref="A1:M559" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M560">
     <sortCondition ref="C2:C560"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
